--- a/src/test/resources/state_counters.xlsx
+++ b/src/test/resources/state_counters.xlsx
@@ -533,7 +533,7 @@
         <v>8</v>
       </c>
       <c r="B4" s="1" t="n">
-        <v>1005.0</v>
+        <v>1011.0</v>
       </c>
       <c r="C4" s="1">
         <v>2230</v>
